--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redzer0\Desktop\iHotel\src\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B05483A-5561-40C5-8F44-E9C267DC7B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="2565" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="User" r:id="rId3" sheetId="1"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -81,17 +89,79 @@
   </si>
   <si>
     <t>ff@123456</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>กหกดกหด</t>
+  </si>
+  <si>
+    <t>กฟหกหฟก</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>rawer@jo.com</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>dadwd</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>dfsg@dfsf.ca</t>
+  </si>
+  <si>
+    <t>12221</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>dawdad</t>
+  </si>
+  <si>
+    <t>fsdf@fdg.rdrtg</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,7 +172,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -114,29 +184,344 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.98046875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.9609375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="7.6953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.33984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="24.41796875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.58984375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.0390625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="12.7421875" collapsed="true"/>
@@ -171,7 +556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -187,7 +572,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
@@ -196,11 +581,11 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="n">
-        <v>43938.02739008102</v>
+      <c r="I2">
+        <v>43938.027390081021</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -216,7 +601,7 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
@@ -225,11 +610,101 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>43938.02819247685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>43938.775825266202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>43938.890286562499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>43938.911069953705</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{805C2B4C-4465-4E7B-8502-DC1C7EF7F9B3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>iam@raweeroj.me</t>
+  </si>
+  <si>
+    <t>0955553696</t>
+  </si>
+  <si>
+    <t>FF212224</t>
   </si>
 </sst>
 </file>
@@ -508,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -701,6 +713,35 @@
         <v>43938.911069953705</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="n">
+        <v>43938.99447322917</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{805C2B4C-4465-4E7B-8502-DC1C7EF7F9B3}"/>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -155,6 +155,33 @@
   </si>
   <si>
     <t>FF212224</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>aaa@aaa.aaa</t>
+  </si>
+  <si>
+    <t>0999555999</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>bbb@bbb.bb</t>
+  </si>
+  <si>
+    <t>121212121212</t>
+  </si>
+  <si>
+    <t>2020-03-18 11:03:03</t>
   </si>
 </sst>
 </file>
@@ -520,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -536,7 +563,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="24.41796875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.58984375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.0390625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.7421875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.66796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -740,6 +767,64 @@
       </c>
       <c r="I7" t="n">
         <v>43938.99447322917</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43939.95550994213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -182,6 +182,21 @@
   </si>
   <si>
     <t>2020-03-18 11:03:03</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>few_raweroj@hotmail.com</t>
+  </si>
+  <si>
+    <t>0956385028</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>19-35-2020 11:35:03</t>
   </si>
 </sst>
 </file>
@@ -547,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -560,9 +575,9 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.9609375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="7.6953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="24.41796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="25.65625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.58984375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0390625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="19.66796875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -825,6 +840,35 @@
       </c>
       <c r="I9" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redzer0\Desktop\iHotel\src\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B05483A-5561-40C5-8F44-E9C267DC7B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A44772C-46BA-41CC-9C9C-7D5E839B3A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="4215" windowWidth="19395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -49,154 +49,112 @@
     <t>DataCreate</t>
   </si>
   <si>
+    <t>Last Edit</t>
+  </si>
+  <si>
     <t>10001</t>
   </si>
   <si>
+    <t>aaa@aaa.aa</t>
+  </si>
+  <si>
+    <t>06354122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>22-29-2020 01:29:46</t>
+  </si>
+  <si>
+    <t>ชาย</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22-34-2020 01:34:05</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>Thongdee</t>
+  </si>
+  <si>
+    <t>few_raweroj@hotmail.com</t>
+  </si>
+  <si>
+    <t>0634162811</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>22-34-2020 01:34:44</t>
+  </si>
+  <si>
     <t>Raweeroj</t>
   </si>
   <si>
-    <t>Thongdee</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>ชาย</t>
-  </si>
-  <si>
-    <t>raweeroj@everythink.dev</t>
-  </si>
-  <si>
-    <t>0556668889</t>
-  </si>
-  <si>
-    <t>fff123456</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>รวีโรจน์</t>
-  </si>
-  <si>
-    <t>ทองดี</t>
-  </si>
-  <si>
-    <t>raweeroj@in.th</t>
-  </si>
-  <si>
-    <t>0895556667</t>
-  </si>
-  <si>
-    <t>ff@123456</t>
+    <t>22-35-2020 01:35:04</t>
   </si>
   <si>
     <t>10003</t>
   </si>
   <si>
-    <t>กหกดกหด</t>
-  </si>
-  <si>
-    <t>กฟหกหฟก</t>
+    <t>Noppawt</t>
+  </si>
+  <si>
+    <t>Khamyot</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>n@mail.com</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>22-39-2020 01:39:19</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>bbc</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>rawer@jo.com</t>
-  </si>
-  <si>
-    <t>00000</t>
+    <t>m@mail.com</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
-    <t>10004</t>
-  </si>
-  <si>
-    <t>dadwd</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>dfsg@dfsf.ca</t>
-  </si>
-  <si>
-    <t>12221</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>dawdad</t>
-  </si>
-  <si>
-    <t>fsdf@fdg.rdrtg</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>iam@raweeroj.me</t>
-  </si>
-  <si>
-    <t>0955553696</t>
-  </si>
-  <si>
-    <t>FF212224</t>
-  </si>
-  <si>
-    <t>10007</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>aaa@aaa.aaa</t>
-  </si>
-  <si>
-    <t>0999555999</t>
-  </si>
-  <si>
-    <t>10008</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>bbb@bbb.bb</t>
-  </si>
-  <si>
-    <t>121212121212</t>
-  </si>
-  <si>
-    <t>2020-03-18 11:03:03</t>
-  </si>
-  <si>
-    <t>10009</t>
-  </si>
-  <si>
-    <t>few_raweroj@hotmail.com</t>
-  </si>
-  <si>
-    <t>0956385028</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>19-35-2020 11:35:03</t>
+    <t>000</t>
+  </si>
+  <si>
+    <t>22-45-2020 01:45:45</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>Noppawat</t>
+  </si>
+  <si>
+    <t>22-47-2020 01:47:45</t>
   </si>
 </sst>
 </file>
@@ -204,18 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,18 +188,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,26 +508,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.98046875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.9609375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.6953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="25.65625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.58984375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.07421875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.66796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,272 +554,139 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>43938.027390081021</v>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>43938.02819247685</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4">
-        <v>43938.775825266202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5">
-        <v>43938.890286562499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="I6">
-        <v>43938.911069953705</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="n">
-        <v>43938.99447322917</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="n">
-        <v>43939.95550994213</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
-        <v>58</v>
+      <c r="J5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{805C2B4C-4465-4E7B-8502-DC1C7EF7F9B3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -99,6 +99,30 @@
   </si>
   <si>
     <t>22-19-2020 10:19:26</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>bbb@bb.bb</t>
+  </si>
+  <si>
+    <t>08652354</t>
+  </si>
+  <si>
+    <t>bbb12</t>
+  </si>
+  <si>
+    <t>23-04-2020 03:57:56</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>23-01-2020 04:01:40</t>
   </si>
 </sst>
 </file>
@@ -143,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -257,6 +281,38 @@
         <v>28</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -123,6 +123,45 @@
   </si>
   <si>
     <t>23-01-2020 04:01:40</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>ไม่ระบุ</t>
+  </si>
+  <si>
+    <t>aaaa@aa.aa</t>
+  </si>
+  <si>
+    <t>06341628111</t>
+  </si>
+  <si>
+    <t>23-04-2020 05:29:23</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>หญิง</t>
+  </si>
+  <si>
+    <t>nn@nn.nn</t>
+  </si>
+  <si>
+    <t>0216515</t>
+  </si>
+  <si>
+    <t>23-04-2020 05:30:47</t>
   </si>
 </sst>
 </file>
@@ -167,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,7 +216,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.98046875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.9609375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.6953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.84375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="25.65625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.58984375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="9.60546875" collapsed="true"/>
@@ -313,6 +352,70 @@
         <v>36</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -6,60 +6,177 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Check_IN_OUT" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>Booking ID</t>
-  </si>
-  <si>
-    <t>Customer name</t>
-  </si>
-  <si>
-    <t>Room Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Status</t>
-  </si>
-  <si>
-    <t>Data Created</t>
-  </si>
-  <si>
-    <t>1715</t>
-  </si>
-  <si>
-    <t>Raweeroj   Thongdee</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>Waiting</t>
-  </si>
-  <si>
-    <t>24-04-2020 12:14:04</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>24-04-2020 12:48:27</t>
-  </si>
-  <si>
-    <t>1719</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>CHECK-OUT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DataCreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Last Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raweeroj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thongdee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ชาย</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> few_raweroj@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0634162811</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22-48-2020 09:48:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22-56-2020 09:56:37</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aaa@dd.aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0898889999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aaa12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22-18-2020 10:18:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22-19-2020 10:19:26</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bbb@bb.bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08652354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bbb12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23-04-2020 03:57:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23-01-2020 04:01:40</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aaaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ไม่ระบุ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aaaa@aa.aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06341628111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23-04-2020 05:29:23</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หญิง</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nn@nn.nn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0216515</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23-04-2020 05:30:47</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fewlove.007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24-04-2020 11:27:39</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -104,18 +221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.65625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.91796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.15625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.98828125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.66796875" collapsed="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -133,44 +243,238 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/db/User.xlsx
+++ b/src/db/User.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>24-30-2020 03:30:59</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>24-50-2020 03:50:56</t>
   </si>
 </sst>
 </file>
@@ -186,10 +192,10 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -198,7 +204,7 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
